--- a/App_Data/Template/ImportBrokerage_Example.xlsx
+++ b/App_Data/Template/ImportBrokerage_Example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <t>Branchid</t>
   </si>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,8 +543,8 @@
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -676,11 +676,11 @@
       <c r="T2">
         <v>26.08</v>
       </c>
-      <c r="U2">
-        <v>26.08</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
+      <c r="U2" s="2">
+        <v>43201</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -744,11 +744,11 @@
       <c r="T3">
         <v>14.83</v>
       </c>
-      <c r="U3">
-        <v>14.83</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
+      <c r="U3" s="2">
+        <v>43201</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -812,11 +812,11 @@
       <c r="T4">
         <v>56.45</v>
       </c>
-      <c r="U4">
-        <v>56.45</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
+      <c r="U4" s="2">
+        <v>43201</v>
+      </c>
+      <c r="V4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -880,11 +880,11 @@
       <c r="T5">
         <v>11.25</v>
       </c>
-      <c r="U5">
-        <v>11.25</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
+      <c r="U5" s="2">
+        <v>43201</v>
+      </c>
+      <c r="V5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -948,11 +948,11 @@
       <c r="T6">
         <v>126</v>
       </c>
-      <c r="U6">
-        <v>126</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
+      <c r="U6" s="2">
+        <v>43201</v>
+      </c>
+      <c r="V6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1016,11 +1016,11 @@
       <c r="T7">
         <v>36.79</v>
       </c>
-      <c r="U7">
-        <v>36.79</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
+      <c r="U7" s="2">
+        <v>43201</v>
+      </c>
+      <c r="V7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1084,11 +1084,11 @@
       <c r="T8">
         <v>38.81</v>
       </c>
-      <c r="U8">
-        <v>38.81</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
+      <c r="U8" s="2">
+        <v>43201</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
